--- a/logfc_Analysis/logfc_col_HC/meta_colflt_t.xlsx
+++ b/logfc_Analysis/logfc_col_HC/meta_colflt_t.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_col_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888DC00B-4B76-424E-AF83-74F50E0B9368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4474D3C0-968E-48A9-9691-77DE8272A345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3378BF2-6CEF-4301-91DA-0EB8C296D0B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="463">
   <si>
     <t>TAIR</t>
   </si>
@@ -1413,10 +1413,6 @@
   </si>
   <si>
     <t>Plasma membrane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gogi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1808,7 +1804,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2136,7 +2132,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -2214,7 +2210,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E16" t="s">
         <v>86</v>
@@ -2240,7 +2236,7 @@
         <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -2266,7 +2262,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -2292,7 +2288,7 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" t="s">
         <v>102</v>
@@ -2422,7 +2418,7 @@
         <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E24" t="s">
         <v>126</v>
@@ -2448,7 +2444,7 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E25" t="s">
         <v>131</v>
@@ -2604,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E31" t="s">
         <v>160</v>
@@ -3150,7 +3146,7 @@
         <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E52" t="s">
         <v>267</v>
@@ -3254,7 +3250,7 @@
         <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E56" t="s">
         <v>287</v>
@@ -3280,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E57" t="s">
         <v>292</v>
@@ -3332,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E59" t="s">
         <v>302</v>
@@ -3384,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E61" t="s">
         <v>312</v>
@@ -3410,7 +3406,7 @@
         <v>315</v>
       </c>
       <c r="D62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E62" t="s">
         <v>316</v>
@@ -3436,7 +3432,7 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E63" t="s">
         <v>320</v>
@@ -3462,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E64" t="s">
         <v>323</v>
@@ -3488,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E65" t="s">
         <v>328</v>
@@ -3514,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E66" t="s">
         <v>332</v>
@@ -3566,7 +3562,7 @@
         <v>340</v>
       </c>
       <c r="D68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E68" t="s">
         <v>341</v>
@@ -3696,7 +3692,7 @@
         <v>364</v>
       </c>
       <c r="D73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E73" t="s">
         <v>365</v>
@@ -3771,7 +3767,7 @@
         <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E76" t="s">
         <v>381</v>
@@ -3823,7 +3819,7 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E78" t="s">
         <v>388</v>
@@ -3849,7 +3845,7 @@
         <v>393</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E79" t="s">
         <v>394</v>
@@ -3875,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E80" t="s">
         <v>398</v>
@@ -3901,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E81" t="s">
         <v>401</v>
@@ -3927,7 +3923,7 @@
         <v>405</v>
       </c>
       <c r="D82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E82" t="s">
         <v>406</v>
@@ -3953,7 +3949,7 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E83" t="s">
         <v>410</v>
@@ -4005,7 +4001,7 @@
         <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E85" t="s">
         <v>419</v>
@@ -4031,7 +4027,7 @@
         <v>424</v>
       </c>
       <c r="D86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E86" t="s">
         <v>425</v>
@@ -4054,7 +4050,7 @@
         <v>429</v>
       </c>
       <c r="D87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E87" t="s">
         <v>430</v>
@@ -4080,7 +4076,7 @@
         <v>434</v>
       </c>
       <c r="D88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E88" t="s">
         <v>435</v>
@@ -4106,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E89" t="s">
         <v>439</v>
